--- a/src/main/resources/data/products.xlsx
+++ b/src/main/resources/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\NLU\InformationTechnology\WebTopic\Project\Backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01C8C69-1C4A-4082-83EC-234D7CC50578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF3F696-6603-4B8E-A7D5-EB3D2BC4F625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6490,8 +6490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="E348" workbookViewId="0">
+      <selection activeCell="P359" sqref="P359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6583,7 +6583,7 @@
         <v>17</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>18</v>
@@ -6625,7 +6625,7 @@
         <v>24</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>477</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>25</v>
@@ -6667,7 +6667,7 @@
         <v>31</v>
       </c>
       <c r="J4">
-        <v>400</v>
+        <v>776</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>32</v>
@@ -6709,7 +6709,7 @@
         <v>31</v>
       </c>
       <c r="J5">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>37</v>
@@ -6751,7 +6751,7 @@
         <v>31</v>
       </c>
       <c r="J6">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>42</v>
@@ -6793,7 +6793,7 @@
         <v>24</v>
       </c>
       <c r="J7">
-        <v>400</v>
+        <v>612</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>32</v>
@@ -6835,7 +6835,7 @@
         <v>50</v>
       </c>
       <c r="J8">
-        <v>400</v>
+        <v>933</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>51</v>
@@ -6877,7 +6877,7 @@
         <v>56</v>
       </c>
       <c r="J9">
-        <v>400</v>
+        <v>495</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>57</v>
@@ -6919,7 +6919,7 @@
         <v>31</v>
       </c>
       <c r="J10">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>61</v>
@@ -6961,7 +6961,7 @@
         <v>31</v>
       </c>
       <c r="J11">
-        <v>400</v>
+        <v>771</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>57</v>
@@ -7003,7 +7003,7 @@
         <v>31</v>
       </c>
       <c r="J12">
-        <v>400</v>
+        <v>678</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>25</v>
@@ -7045,7 +7045,7 @@
         <v>56</v>
       </c>
       <c r="J13">
-        <v>400</v>
+        <v>745</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>32</v>
@@ -7087,7 +7087,7 @@
         <v>31</v>
       </c>
       <c r="J14">
-        <v>400</v>
+        <v>549</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>61</v>
@@ -7129,7 +7129,7 @@
         <v>24</v>
       </c>
       <c r="J15">
-        <v>400</v>
+        <v>946</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>25</v>
@@ -7171,7 +7171,7 @@
         <v>31</v>
       </c>
       <c r="J16">
-        <v>400</v>
+        <v>843</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>32</v>
@@ -7213,7 +7213,7 @@
         <v>87</v>
       </c>
       <c r="J17">
-        <v>400</v>
+        <v>752</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>88</v>
@@ -7255,7 +7255,7 @@
         <v>24</v>
       </c>
       <c r="J18">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>32</v>
@@ -7299,7 +7299,7 @@
         <v>24</v>
       </c>
       <c r="J19">
-        <v>400</v>
+        <v>589</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>98</v>
@@ -7343,7 +7343,7 @@
         <v>31</v>
       </c>
       <c r="J20">
-        <v>400</v>
+        <v>315</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>103</v>
@@ -7387,7 +7387,7 @@
         <v>31</v>
       </c>
       <c r="J21">
-        <v>400</v>
+        <v>149</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>107</v>
@@ -7431,7 +7431,7 @@
         <v>31</v>
       </c>
       <c r="J22">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>111</v>
@@ -7475,7 +7475,7 @@
         <v>24</v>
       </c>
       <c r="J23">
-        <v>400</v>
+        <v>627</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>116</v>
@@ -7519,7 +7519,7 @@
         <v>120</v>
       </c>
       <c r="J24">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>116</v>
@@ -7563,7 +7563,7 @@
         <v>24</v>
       </c>
       <c r="J25">
-        <v>400</v>
+        <v>917</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>116</v>
@@ -7605,7 +7605,7 @@
         <v>48</v>
       </c>
       <c r="J26">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>16</v>
@@ -7649,7 +7649,7 @@
         <v>50</v>
       </c>
       <c r="J27">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>131</v>
@@ -7691,7 +7691,7 @@
         <v>31</v>
       </c>
       <c r="J28">
-        <v>400</v>
+        <v>902</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>16</v>
@@ -7733,7 +7733,7 @@
         <v>31</v>
       </c>
       <c r="J29">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>16</v>
@@ -7775,7 +7775,7 @@
         <v>56</v>
       </c>
       <c r="J30">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>141</v>
@@ -7817,7 +7817,7 @@
         <v>146</v>
       </c>
       <c r="J31">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>147</v>
@@ -7859,7 +7859,7 @@
         <v>48</v>
       </c>
       <c r="J32">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>32</v>
@@ -7901,7 +7901,7 @@
         <v>31</v>
       </c>
       <c r="J33">
-        <v>400</v>
+        <v>921</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>32</v>
@@ -7943,7 +7943,7 @@
         <v>24</v>
       </c>
       <c r="J34">
-        <v>400</v>
+        <v>983</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>25</v>
@@ -7985,7 +7985,7 @@
         <v>48</v>
       </c>
       <c r="J35">
-        <v>400</v>
+        <v>604</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>32</v>
@@ -8027,7 +8027,7 @@
         <v>24</v>
       </c>
       <c r="J36">
-        <v>400</v>
+        <v>233</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>32</v>
@@ -8069,7 +8069,7 @@
         <v>31</v>
       </c>
       <c r="J37">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>16</v>
@@ -8111,7 +8111,7 @@
         <v>31</v>
       </c>
       <c r="J38">
-        <v>400</v>
+        <v>603</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>42</v>
@@ -8153,7 +8153,7 @@
         <v>175</v>
       </c>
       <c r="J39">
-        <v>400</v>
+        <v>698</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>141</v>
@@ -8195,7 +8195,7 @@
         <v>120</v>
       </c>
       <c r="J40">
-        <v>400</v>
+        <v>851</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>25</v>
@@ -8237,7 +8237,7 @@
         <v>183</v>
       </c>
       <c r="J41">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>16</v>
@@ -8279,7 +8279,7 @@
         <v>188</v>
       </c>
       <c r="J42">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>141</v>
@@ -8321,7 +8321,7 @@
         <v>17</v>
       </c>
       <c r="J43">
-        <v>400</v>
+        <v>569</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>18</v>
@@ -8365,7 +8365,7 @@
         <v>183</v>
       </c>
       <c r="J44">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>116</v>
@@ -8409,7 +8409,7 @@
         <v>24</v>
       </c>
       <c r="J45">
-        <v>400</v>
+        <v>673</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>199</v>
@@ -8453,7 +8453,7 @@
         <v>24</v>
       </c>
       <c r="J46">
-        <v>400</v>
+        <v>967</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>203</v>
@@ -8497,7 +8497,7 @@
         <v>24</v>
       </c>
       <c r="J47">
-        <v>400</v>
+        <v>822</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>116</v>
@@ -8541,7 +8541,7 @@
         <v>31</v>
       </c>
       <c r="J48">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>111</v>
@@ -8585,7 +8585,7 @@
         <v>146</v>
       </c>
       <c r="J49">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>116</v>
@@ -8629,7 +8629,7 @@
         <v>219</v>
       </c>
       <c r="J50">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>98</v>
@@ -8673,7 +8673,7 @@
         <v>219</v>
       </c>
       <c r="J51">
-        <v>400</v>
+        <v>111</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>223</v>
@@ -8717,7 +8717,7 @@
         <v>219</v>
       </c>
       <c r="J52">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>223</v>
@@ -8761,7 +8761,7 @@
         <v>219</v>
       </c>
       <c r="J53">
-        <v>400</v>
+        <v>108</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>223</v>
@@ -8805,7 +8805,7 @@
         <v>219</v>
       </c>
       <c r="J54">
-        <v>400</v>
+        <v>978</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>98</v>
@@ -8849,7 +8849,7 @@
         <v>219</v>
       </c>
       <c r="J55">
-        <v>400</v>
+        <v>769</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>98</v>
@@ -8893,7 +8893,7 @@
         <v>219</v>
       </c>
       <c r="J56">
-        <v>400</v>
+        <v>883</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>223</v>
@@ -8937,7 +8937,7 @@
         <v>219</v>
       </c>
       <c r="J57">
-        <v>400</v>
+        <v>703</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>223</v>
@@ -8981,7 +8981,7 @@
         <v>219</v>
       </c>
       <c r="J58">
-        <v>400</v>
+        <v>964</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>223</v>
@@ -9025,7 +9025,7 @@
         <v>219</v>
       </c>
       <c r="J59">
-        <v>400</v>
+        <v>565</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>223</v>
@@ -9069,7 +9069,7 @@
         <v>219</v>
       </c>
       <c r="J60">
-        <v>400</v>
+        <v>209</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>223</v>
@@ -9113,7 +9113,7 @@
         <v>219</v>
       </c>
       <c r="J61">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>98</v>
@@ -9157,7 +9157,7 @@
         <v>219</v>
       </c>
       <c r="J62">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>251</v>
@@ -9201,7 +9201,7 @@
         <v>219</v>
       </c>
       <c r="J63">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>251</v>
@@ -9245,7 +9245,7 @@
         <v>219</v>
       </c>
       <c r="J64">
-        <v>400</v>
+        <v>94</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>223</v>
@@ -9289,7 +9289,7 @@
         <v>219</v>
       </c>
       <c r="J65">
-        <v>400</v>
+        <v>788</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>223</v>
@@ -9333,7 +9333,7 @@
         <v>219</v>
       </c>
       <c r="J66">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>98</v>
@@ -9377,7 +9377,7 @@
         <v>219</v>
       </c>
       <c r="J67">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>98</v>
@@ -9421,7 +9421,7 @@
         <v>219</v>
       </c>
       <c r="J68">
-        <v>400</v>
+        <v>727</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>98</v>
@@ -9465,7 +9465,7 @@
         <v>219</v>
       </c>
       <c r="J69">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>98</v>
@@ -9509,7 +9509,7 @@
         <v>219</v>
       </c>
       <c r="J70">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>251</v>
@@ -9553,7 +9553,7 @@
         <v>219</v>
       </c>
       <c r="J71">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>251</v>
@@ -9597,7 +9597,7 @@
         <v>219</v>
       </c>
       <c r="J72">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>251</v>
@@ -9641,7 +9641,7 @@
         <v>219</v>
       </c>
       <c r="J73">
-        <v>400</v>
+        <v>695</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>251</v>
@@ -9685,7 +9685,7 @@
         <v>31</v>
       </c>
       <c r="J74">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>103</v>
@@ -9729,7 +9729,7 @@
         <v>31</v>
       </c>
       <c r="J75">
-        <v>400</v>
+        <v>98</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>107</v>
@@ -9773,7 +9773,7 @@
         <v>24</v>
       </c>
       <c r="J76">
-        <v>400</v>
+        <v>239</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>116</v>
@@ -9817,7 +9817,7 @@
         <v>183</v>
       </c>
       <c r="J77">
-        <v>400</v>
+        <v>551</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>107</v>
@@ -9861,7 +9861,7 @@
         <v>50</v>
       </c>
       <c r="J78">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>147</v>
@@ -9905,7 +9905,7 @@
         <v>305</v>
       </c>
       <c r="J79">
-        <v>400</v>
+        <v>283</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>306</v>
@@ -9949,7 +9949,7 @@
         <v>146</v>
       </c>
       <c r="J80">
-        <v>400</v>
+        <v>854</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>306</v>
@@ -9993,7 +9993,7 @@
         <v>31</v>
       </c>
       <c r="J81">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>107</v>
@@ -10037,7 +10037,7 @@
         <v>31</v>
       </c>
       <c r="J82">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>107</v>
@@ -10081,7 +10081,7 @@
         <v>31</v>
       </c>
       <c r="J83">
-        <v>400</v>
+        <v>152</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>98</v>
@@ -10125,7 +10125,7 @@
         <v>31</v>
       </c>
       <c r="J84">
-        <v>400</v>
+        <v>542</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>116</v>
@@ -10169,7 +10169,7 @@
         <v>31</v>
       </c>
       <c r="J85">
-        <v>400</v>
+        <v>965</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>107</v>
@@ -10213,7 +10213,7 @@
         <v>31</v>
       </c>
       <c r="J86">
-        <v>400</v>
+        <v>790</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>107</v>
@@ -10257,7 +10257,7 @@
         <v>31</v>
       </c>
       <c r="J87">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>338</v>
@@ -10301,7 +10301,7 @@
         <v>24</v>
       </c>
       <c r="J88">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>98</v>
@@ -10345,7 +10345,7 @@
         <v>56</v>
       </c>
       <c r="J89">
-        <v>400</v>
+        <v>502</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>107</v>
@@ -10389,7 +10389,7 @@
         <v>31</v>
       </c>
       <c r="J90">
-        <v>400</v>
+        <v>859</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>107</v>
@@ -10433,7 +10433,7 @@
         <v>146</v>
       </c>
       <c r="J91">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>116</v>
@@ -10477,7 +10477,7 @@
         <v>31</v>
       </c>
       <c r="J92">
-        <v>400</v>
+        <v>817</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>116</v>
@@ -10521,7 +10521,7 @@
         <v>31</v>
       </c>
       <c r="J93">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>363</v>
@@ -10565,7 +10565,7 @@
         <v>31</v>
       </c>
       <c r="J94">
-        <v>400</v>
+        <v>806</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>147</v>
@@ -10609,7 +10609,7 @@
         <v>372</v>
       </c>
       <c r="J95">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>107</v>
@@ -10653,7 +10653,7 @@
         <v>31</v>
       </c>
       <c r="J96">
-        <v>400</v>
+        <v>722</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>107</v>
@@ -10697,7 +10697,7 @@
         <v>24</v>
       </c>
       <c r="J97">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>98</v>
@@ -10739,7 +10739,7 @@
         <v>16</v>
       </c>
       <c r="J98">
-        <v>400</v>
+        <v>231</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>385</v>
@@ -10781,7 +10781,7 @@
         <v>389</v>
       </c>
       <c r="J99">
-        <v>400</v>
+        <v>854</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>391</v>
@@ -10823,7 +10823,7 @@
         <v>389</v>
       </c>
       <c r="J100">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>391</v>
@@ -10865,7 +10865,7 @@
         <v>389</v>
       </c>
       <c r="J101">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>398</v>
@@ -10907,7 +10907,7 @@
         <v>31</v>
       </c>
       <c r="J102">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>403</v>
@@ -10949,7 +10949,7 @@
         <v>389</v>
       </c>
       <c r="J103">
-        <v>400</v>
+        <v>766</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>407</v>
@@ -10991,7 +10991,7 @@
         <v>389</v>
       </c>
       <c r="J104">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>398</v>
@@ -11035,7 +11035,7 @@
         <v>389</v>
       </c>
       <c r="J105">
-        <v>400</v>
+        <v>929</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>414</v>
@@ -11079,7 +11079,7 @@
         <v>389</v>
       </c>
       <c r="J106">
-        <v>400</v>
+        <v>896</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>418</v>
@@ -11121,7 +11121,7 @@
         <v>389</v>
       </c>
       <c r="J107">
-        <v>400</v>
+        <v>592</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>422</v>
@@ -11163,7 +11163,7 @@
         <v>87</v>
       </c>
       <c r="J108">
-        <v>400</v>
+        <v>638</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>426</v>
@@ -11205,7 +11205,7 @@
         <v>389</v>
       </c>
       <c r="J109">
-        <v>400</v>
+        <v>963</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>431</v>
@@ -11247,7 +11247,7 @@
         <v>434</v>
       </c>
       <c r="J110">
-        <v>400</v>
+        <v>568</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>18</v>
@@ -11291,7 +11291,7 @@
         <v>175</v>
       </c>
       <c r="J111">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>439</v>
@@ -11335,7 +11335,7 @@
         <v>434</v>
       </c>
       <c r="J112">
-        <v>400</v>
+        <v>701</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>444</v>
@@ -11379,7 +11379,7 @@
         <v>56</v>
       </c>
       <c r="J113">
-        <v>400</v>
+        <v>729</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>449</v>
@@ -11423,7 +11423,7 @@
         <v>389</v>
       </c>
       <c r="J114">
-        <v>400</v>
+        <v>821</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>454</v>
@@ -11467,7 +11467,7 @@
         <v>389</v>
       </c>
       <c r="J115">
-        <v>400</v>
+        <v>490</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>458</v>
@@ -11511,7 +11511,7 @@
         <v>31</v>
       </c>
       <c r="J116">
-        <v>400</v>
+        <v>933</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>463</v>
@@ -11555,7 +11555,7 @@
         <v>48</v>
       </c>
       <c r="J117">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>468</v>
@@ -11599,7 +11599,7 @@
         <v>87</v>
       </c>
       <c r="J118">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>98</v>
@@ -11643,7 +11643,7 @@
         <v>477</v>
       </c>
       <c r="J119">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>478</v>
@@ -11687,7 +11687,7 @@
         <v>24</v>
       </c>
       <c r="J120">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>98</v>
@@ -11731,7 +11731,7 @@
         <v>56</v>
       </c>
       <c r="J121">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>478</v>
@@ -11775,7 +11775,7 @@
         <v>56</v>
       </c>
       <c r="J122">
-        <v>400</v>
+        <v>998</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>398</v>
@@ -11819,7 +11819,7 @@
         <v>56</v>
       </c>
       <c r="J123">
-        <v>400</v>
+        <v>284</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>107</v>
@@ -11863,7 +11863,7 @@
         <v>24</v>
       </c>
       <c r="J124">
-        <v>400</v>
+        <v>729</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>98</v>
@@ -11907,7 +11907,7 @@
         <v>56</v>
       </c>
       <c r="J125">
-        <v>400</v>
+        <v>607</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>107</v>
@@ -11951,7 +11951,7 @@
         <v>31</v>
       </c>
       <c r="J126">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>116</v>
@@ -11995,7 +11995,7 @@
         <v>31</v>
       </c>
       <c r="J127">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>116</v>
@@ -12039,7 +12039,7 @@
         <v>56</v>
       </c>
       <c r="J128">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>116</v>
@@ -12083,7 +12083,7 @@
         <v>56</v>
       </c>
       <c r="J129">
-        <v>400</v>
+        <v>481</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>103</v>
@@ -12127,7 +12127,7 @@
         <v>24</v>
       </c>
       <c r="J130">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>520</v>
@@ -12171,7 +12171,7 @@
         <v>56</v>
       </c>
       <c r="J131">
-        <v>400</v>
+        <v>142</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>116</v>
@@ -12215,7 +12215,7 @@
         <v>31</v>
       </c>
       <c r="J132">
-        <v>400</v>
+        <v>729</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>529</v>
@@ -12259,7 +12259,7 @@
         <v>50</v>
       </c>
       <c r="J133">
-        <v>400</v>
+        <v>629</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>98</v>
@@ -12303,7 +12303,7 @@
         <v>24</v>
       </c>
       <c r="J134">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>538</v>
@@ -12347,7 +12347,7 @@
         <v>24</v>
       </c>
       <c r="J135">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>538</v>
@@ -12389,7 +12389,7 @@
         <v>24</v>
       </c>
       <c r="J136">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>538</v>
@@ -12433,7 +12433,7 @@
         <v>24</v>
       </c>
       <c r="J137">
-        <v>400</v>
+        <v>726</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>538</v>
@@ -12477,7 +12477,7 @@
         <v>24</v>
       </c>
       <c r="J138">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>98</v>
@@ -12521,7 +12521,7 @@
         <v>48</v>
       </c>
       <c r="J139">
-        <v>400</v>
+        <v>802</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>116</v>
@@ -12565,7 +12565,7 @@
         <v>17</v>
       </c>
       <c r="J140">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>98</v>
@@ -12609,7 +12609,7 @@
         <v>175</v>
       </c>
       <c r="J141">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>98</v>
@@ -12651,7 +12651,7 @@
         <v>219</v>
       </c>
       <c r="J142">
-        <v>400</v>
+        <v>629</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>568</v>
@@ -12693,7 +12693,7 @@
         <v>219</v>
       </c>
       <c r="J143">
-        <v>400</v>
+        <v>847</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>57</v>
@@ -12735,7 +12735,7 @@
         <v>219</v>
       </c>
       <c r="J144">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>57</v>
@@ -12777,7 +12777,7 @@
         <v>175</v>
       </c>
       <c r="J145">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>580</v>
@@ -12819,7 +12819,7 @@
         <v>31</v>
       </c>
       <c r="J146">
-        <v>400</v>
+        <v>659</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>57</v>
@@ -12861,7 +12861,7 @@
         <v>477</v>
       </c>
       <c r="J147">
-        <v>400</v>
+        <v>127</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>589</v>
@@ -12903,7 +12903,7 @@
         <v>477</v>
       </c>
       <c r="J148">
-        <v>400</v>
+        <v>728</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>589</v>
@@ -12945,7 +12945,7 @@
         <v>477</v>
       </c>
       <c r="J149">
-        <v>400</v>
+        <v>999</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>589</v>
@@ -12987,7 +12987,7 @@
         <v>219</v>
       </c>
       <c r="J150">
-        <v>400</v>
+        <v>587</v>
       </c>
       <c r="K150" s="1" t="s">
         <v>251</v>
@@ -13029,7 +13029,7 @@
         <v>31</v>
       </c>
       <c r="J151">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>32</v>
@@ -13073,7 +13073,7 @@
         <v>477</v>
       </c>
       <c r="J152">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>223</v>
@@ -13117,7 +13117,7 @@
         <v>31</v>
       </c>
       <c r="J153">
-        <v>400</v>
+        <v>169</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>610</v>
@@ -13157,7 +13157,7 @@
         <v>87</v>
       </c>
       <c r="J154">
-        <v>400</v>
+        <v>970</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>16</v>
@@ -13199,7 +13199,7 @@
         <v>24</v>
       </c>
       <c r="J155">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>98</v>
@@ -13243,7 +13243,7 @@
         <v>31</v>
       </c>
       <c r="J156">
-        <v>400</v>
+        <v>148</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>98</v>
@@ -13287,7 +13287,7 @@
         <v>31</v>
       </c>
       <c r="J157">
-        <v>400</v>
+        <v>808</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>98</v>
@@ -13331,7 +13331,7 @@
         <v>31</v>
       </c>
       <c r="J158">
-        <v>400</v>
+        <v>147</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>98</v>
@@ -13375,7 +13375,7 @@
         <v>24</v>
       </c>
       <c r="J159">
-        <v>400</v>
+        <v>972</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>116</v>
@@ -13419,7 +13419,7 @@
         <v>31</v>
       </c>
       <c r="J160">
-        <v>400</v>
+        <v>654</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>147</v>
@@ -13463,7 +13463,7 @@
         <v>24</v>
       </c>
       <c r="J161">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>147</v>
@@ -13507,7 +13507,7 @@
         <v>31</v>
       </c>
       <c r="J162">
-        <v>400</v>
+        <v>990</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>645</v>
@@ -13551,7 +13551,7 @@
         <v>24</v>
       </c>
       <c r="J163">
-        <v>400</v>
+        <v>759</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>650</v>
@@ -13595,7 +13595,7 @@
         <v>477</v>
       </c>
       <c r="J164">
-        <v>400</v>
+        <v>942</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>111</v>
@@ -13637,7 +13637,7 @@
         <v>31</v>
       </c>
       <c r="J165">
-        <v>400</v>
+        <v>964</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>657</v>
@@ -13679,7 +13679,7 @@
         <v>48</v>
       </c>
       <c r="J166">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>857</v>
@@ -13721,7 +13721,7 @@
         <v>17</v>
       </c>
       <c r="J167">
-        <v>400</v>
+        <v>934</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>1223</v>
@@ -13763,7 +13763,7 @@
         <v>389</v>
       </c>
       <c r="J168">
-        <v>400</v>
+        <v>608</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>668</v>
@@ -13805,7 +13805,7 @@
         <v>389</v>
       </c>
       <c r="J169">
-        <v>400</v>
+        <v>958</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>111</v>
@@ -13847,7 +13847,7 @@
         <v>389</v>
       </c>
       <c r="J170">
-        <v>400</v>
+        <v>804</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>674</v>
@@ -13889,7 +13889,7 @@
         <v>389</v>
       </c>
       <c r="J171">
-        <v>400</v>
+        <v>134</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>678</v>
@@ -13931,7 +13931,7 @@
         <v>389</v>
       </c>
       <c r="J172">
-        <v>400</v>
+        <v>848</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>25</v>
@@ -13973,7 +13973,7 @@
         <v>389</v>
       </c>
       <c r="J173">
-        <v>400</v>
+        <v>98</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>686</v>
@@ -14015,7 +14015,7 @@
         <v>389</v>
       </c>
       <c r="J174">
-        <v>400</v>
+        <v>981</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>111</v>
@@ -14059,7 +14059,7 @@
         <v>389</v>
       </c>
       <c r="J175">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>693</v>
@@ -14101,7 +14101,7 @@
         <v>48</v>
       </c>
       <c r="J176">
-        <v>400</v>
+        <v>696</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>697</v>
@@ -14143,7 +14143,7 @@
         <v>87</v>
       </c>
       <c r="J177">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>702</v>
@@ -14185,7 +14185,7 @@
         <v>389</v>
       </c>
       <c r="J178">
-        <v>400</v>
+        <v>991</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>463</v>
@@ -14227,7 +14227,7 @@
         <v>389</v>
       </c>
       <c r="J179">
-        <v>400</v>
+        <v>611</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>678</v>
@@ -14269,7 +14269,7 @@
         <v>48</v>
       </c>
       <c r="J180">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>147</v>
@@ -14311,7 +14311,7 @@
         <v>48</v>
       </c>
       <c r="J181">
-        <v>400</v>
+        <v>946</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>716</v>
@@ -14353,7 +14353,7 @@
         <v>87</v>
       </c>
       <c r="J182">
-        <v>400</v>
+        <v>142</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>111</v>
@@ -14395,7 +14395,7 @@
         <v>389</v>
       </c>
       <c r="J183">
-        <v>400</v>
+        <v>512</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>25</v>
@@ -14437,7 +14437,7 @@
         <v>389</v>
       </c>
       <c r="J184">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>25</v>
@@ -14479,7 +14479,7 @@
         <v>50</v>
       </c>
       <c r="J185">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>32</v>
@@ -14521,7 +14521,7 @@
         <v>50</v>
       </c>
       <c r="J186">
-        <v>400</v>
+        <v>871</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>733</v>
@@ -14565,7 +14565,7 @@
         <v>48</v>
       </c>
       <c r="J187">
-        <v>400</v>
+        <v>715</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>738</v>
@@ -14609,7 +14609,7 @@
         <v>477</v>
       </c>
       <c r="J188">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>111</v>
@@ -14653,7 +14653,7 @@
         <v>87</v>
       </c>
       <c r="J189">
-        <v>400</v>
+        <v>823</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>745</v>
@@ -14695,7 +14695,7 @@
         <v>56</v>
       </c>
       <c r="J190">
-        <v>400</v>
+        <v>263</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>16</v>
@@ -14737,7 +14737,7 @@
         <v>31</v>
       </c>
       <c r="J191">
-        <v>400</v>
+        <v>624</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>16</v>
@@ -14779,7 +14779,7 @@
         <v>56</v>
       </c>
       <c r="J192">
-        <v>400</v>
+        <v>830</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>756</v>
@@ -14821,7 +14821,7 @@
         <v>434</v>
       </c>
       <c r="J193">
-        <v>400</v>
+        <v>626</v>
       </c>
       <c r="K193" s="1" t="s">
         <v>37</v>
@@ -14863,7 +14863,7 @@
         <v>31</v>
       </c>
       <c r="J194">
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>568</v>
@@ -14905,7 +14905,7 @@
         <v>87</v>
       </c>
       <c r="J195">
-        <v>400</v>
+        <v>118</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>767</v>
@@ -14947,7 +14947,7 @@
         <v>87</v>
       </c>
       <c r="J196">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>767</v>
@@ -14989,7 +14989,7 @@
         <v>31</v>
       </c>
       <c r="J197">
-        <v>400</v>
+        <v>629</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>568</v>
@@ -15031,7 +15031,7 @@
         <v>56</v>
       </c>
       <c r="J198">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>568</v>
@@ -15073,7 +15073,7 @@
         <v>434</v>
       </c>
       <c r="J199">
-        <v>400</v>
+        <v>826</v>
       </c>
       <c r="K199" s="1" t="s">
         <v>32</v>
@@ -15115,7 +15115,7 @@
         <v>31</v>
       </c>
       <c r="J200">
-        <v>400</v>
+        <v>137</v>
       </c>
       <c r="K200" s="1" t="s">
         <v>783</v>
@@ -15157,7 +15157,7 @@
         <v>56</v>
       </c>
       <c r="J201">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="K201" s="1" t="s">
         <v>733</v>
@@ -15199,7 +15199,7 @@
         <v>31</v>
       </c>
       <c r="J202">
-        <v>400</v>
+        <v>607</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>88</v>
@@ -15241,7 +15241,7 @@
         <v>31</v>
       </c>
       <c r="J203">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K203" s="1" t="s">
         <v>568</v>
@@ -15283,7 +15283,7 @@
         <v>56</v>
       </c>
       <c r="J204">
-        <v>400</v>
+        <v>176</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>568</v>
@@ -15327,7 +15327,7 @@
         <v>24</v>
       </c>
       <c r="J205">
-        <v>400</v>
+        <v>182</v>
       </c>
       <c r="K205" s="1" t="s">
         <v>801</v>
@@ -15371,7 +15371,7 @@
         <v>31</v>
       </c>
       <c r="J206">
-        <v>400</v>
+        <v>949</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>111</v>
@@ -15415,7 +15415,7 @@
         <v>24</v>
       </c>
       <c r="J207">
-        <v>400</v>
+        <v>707</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>111</v>
@@ -15459,7 +15459,7 @@
         <v>87</v>
       </c>
       <c r="J208">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>103</v>
@@ -15503,7 +15503,7 @@
         <v>24</v>
       </c>
       <c r="J209">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K209" s="1" t="s">
         <v>814</v>
@@ -15547,7 +15547,7 @@
         <v>24</v>
       </c>
       <c r="J210">
-        <v>400</v>
+        <v>609</v>
       </c>
       <c r="K210" s="1" t="s">
         <v>111</v>
@@ -15591,7 +15591,7 @@
         <v>24</v>
       </c>
       <c r="J211">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>107</v>
@@ -15635,7 +15635,7 @@
         <v>56</v>
       </c>
       <c r="J212">
-        <v>400</v>
+        <v>587</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>826</v>
@@ -15679,7 +15679,7 @@
         <v>24</v>
       </c>
       <c r="J213">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>831</v>
@@ -15723,7 +15723,7 @@
         <v>434</v>
       </c>
       <c r="J214">
-        <v>400</v>
+        <v>590</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>98</v>
@@ -15767,7 +15767,7 @@
         <v>56</v>
       </c>
       <c r="J215">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>840</v>
@@ -15811,7 +15811,7 @@
         <v>31</v>
       </c>
       <c r="J216">
-        <v>400</v>
+        <v>812</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>98</v>
@@ -15855,7 +15855,7 @@
         <v>24</v>
       </c>
       <c r="J217">
-        <v>400</v>
+        <v>661</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>463</v>
@@ -15899,7 +15899,7 @@
         <v>24</v>
       </c>
       <c r="J218">
-        <v>400</v>
+        <v>698</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>306</v>
@@ -15943,7 +15943,7 @@
         <v>24</v>
       </c>
       <c r="J219">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>857</v>
@@ -15987,7 +15987,7 @@
         <v>31</v>
       </c>
       <c r="J220">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>463</v>
@@ -16031,7 +16031,7 @@
         <v>24</v>
       </c>
       <c r="J221">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>857</v>
@@ -16075,7 +16075,7 @@
         <v>434</v>
       </c>
       <c r="J222">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>98</v>
@@ -16119,7 +16119,7 @@
         <v>31</v>
       </c>
       <c r="J223">
-        <v>400</v>
+        <v>498</v>
       </c>
       <c r="K223" s="1" t="s">
         <v>98</v>
@@ -16163,7 +16163,7 @@
         <v>24</v>
       </c>
       <c r="J224">
-        <v>400</v>
+        <v>173</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>116</v>
@@ -16207,7 +16207,7 @@
         <v>31</v>
       </c>
       <c r="J225">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>881</v>
@@ -16251,7 +16251,7 @@
         <v>24</v>
       </c>
       <c r="J226">
-        <v>400</v>
+        <v>686</v>
       </c>
       <c r="K226" s="1" t="s">
         <v>98</v>
@@ -16295,7 +16295,7 @@
         <v>434</v>
       </c>
       <c r="J227">
-        <v>400</v>
+        <v>257</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>831</v>
@@ -16339,7 +16339,7 @@
         <v>31</v>
       </c>
       <c r="J228">
-        <v>400</v>
+        <v>671</v>
       </c>
       <c r="K228" s="1" t="s">
         <v>98</v>
@@ -16383,7 +16383,7 @@
         <v>17</v>
       </c>
       <c r="J229">
-        <v>400</v>
+        <v>887</v>
       </c>
       <c r="K229" s="1" t="s">
         <v>463</v>
@@ -16427,7 +16427,7 @@
         <v>31</v>
       </c>
       <c r="J230">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>1563</v>
@@ -16471,7 +16471,7 @@
         <v>434</v>
       </c>
       <c r="J231">
-        <v>400</v>
+        <v>232</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>98</v>
@@ -16515,7 +16515,7 @@
         <v>31</v>
       </c>
       <c r="J232">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="K232" s="1" t="s">
         <v>910</v>
@@ -16559,7 +16559,7 @@
         <v>31</v>
       </c>
       <c r="J233">
-        <v>400</v>
+        <v>659</v>
       </c>
       <c r="K233" s="1" t="s">
         <v>116</v>
@@ -16603,7 +16603,7 @@
         <v>31</v>
       </c>
       <c r="J234">
-        <v>400</v>
+        <v>973</v>
       </c>
       <c r="K234" s="1" t="s">
         <v>103</v>
@@ -16647,7 +16647,7 @@
         <v>50</v>
       </c>
       <c r="J235">
-        <v>400</v>
+        <v>592</v>
       </c>
       <c r="K235" s="1" t="s">
         <v>116</v>
@@ -16691,7 +16691,7 @@
         <v>50</v>
       </c>
       <c r="J236">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K236" s="1" t="s">
         <v>116</v>
@@ -16735,7 +16735,7 @@
         <v>183</v>
       </c>
       <c r="J237">
-        <v>400</v>
+        <v>624</v>
       </c>
       <c r="K237" s="1" t="s">
         <v>107</v>
@@ -16779,7 +16779,7 @@
         <v>17</v>
       </c>
       <c r="J238">
-        <v>400</v>
+        <v>956</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>16</v>
@@ -16821,7 +16821,7 @@
         <v>183</v>
       </c>
       <c r="J239">
-        <v>400</v>
+        <v>761</v>
       </c>
       <c r="K239" s="1" t="s">
         <v>116</v>
@@ -16865,7 +16865,7 @@
         <v>477</v>
       </c>
       <c r="J240">
-        <v>400</v>
+        <v>213</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>338</v>
@@ -16909,7 +16909,7 @@
         <v>146</v>
       </c>
       <c r="J241">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>116</v>
@@ -16953,7 +16953,7 @@
         <v>24</v>
       </c>
       <c r="J242">
-        <v>400</v>
+        <v>986</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>98</v>
@@ -16997,7 +16997,7 @@
         <v>31</v>
       </c>
       <c r="J243">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K243" s="1" t="s">
         <v>107</v>
@@ -17041,7 +17041,7 @@
         <v>389</v>
       </c>
       <c r="J244">
-        <v>400</v>
+        <v>613</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>147</v>
@@ -17085,7 +17085,7 @@
         <v>389</v>
       </c>
       <c r="J245">
-        <v>400</v>
+        <v>113</v>
       </c>
       <c r="K245" s="1" t="s">
         <v>98</v>
@@ -17129,7 +17129,7 @@
         <v>389</v>
       </c>
       <c r="J246">
-        <v>400</v>
+        <v>489</v>
       </c>
       <c r="K246" s="1" t="s">
         <v>826</v>
@@ -17173,7 +17173,7 @@
         <v>389</v>
       </c>
       <c r="J247">
-        <v>400</v>
+        <v>631</v>
       </c>
       <c r="K247" s="1" t="s">
         <v>959</v>
@@ -17217,7 +17217,7 @@
         <v>31</v>
       </c>
       <c r="J248">
-        <v>400</v>
+        <v>693</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>107</v>
@@ -17261,7 +17261,7 @@
         <v>389</v>
       </c>
       <c r="J249">
-        <v>400</v>
+        <v>820</v>
       </c>
       <c r="K249" s="1" t="s">
         <v>968</v>
@@ -17305,7 +17305,7 @@
         <v>56</v>
       </c>
       <c r="J250">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="K250" s="1" t="s">
         <v>463</v>
@@ -17349,7 +17349,7 @@
         <v>31</v>
       </c>
       <c r="J251">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="K251" s="1" t="s">
         <v>976</v>
@@ -17393,7 +17393,7 @@
         <v>24</v>
       </c>
       <c r="J252">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>463</v>
@@ -17435,7 +17435,7 @@
         <v>434</v>
       </c>
       <c r="J253">
-        <v>400</v>
+        <v>963</v>
       </c>
       <c r="K253" s="1" t="s">
         <v>98</v>
@@ -17479,7 +17479,7 @@
         <v>389</v>
       </c>
       <c r="J254">
-        <v>400</v>
+        <v>686</v>
       </c>
       <c r="K254" s="1" t="s">
         <v>98</v>
@@ -17523,7 +17523,7 @@
         <v>31</v>
       </c>
       <c r="J255">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="K255" s="1" t="s">
         <v>107</v>
@@ -17567,7 +17567,7 @@
         <v>87</v>
       </c>
       <c r="J256">
-        <v>400</v>
+        <v>181</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>996</v>
@@ -17611,7 +17611,7 @@
         <v>1001</v>
       </c>
       <c r="J257">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>1002</v>
@@ -17655,7 +17655,7 @@
         <v>17</v>
       </c>
       <c r="J258">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>478</v>
@@ -17699,7 +17699,7 @@
         <v>389</v>
       </c>
       <c r="J259">
-        <v>400</v>
+        <v>985</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>814</v>
@@ -17743,7 +17743,7 @@
         <v>389</v>
       </c>
       <c r="J260">
-        <v>400</v>
+        <v>253</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>657</v>
@@ -17787,7 +17787,7 @@
         <v>389</v>
       </c>
       <c r="J261">
-        <v>400</v>
+        <v>538</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>463</v>
@@ -17829,7 +17829,7 @@
         <v>87</v>
       </c>
       <c r="J262">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>57</v>
@@ -17871,7 +17871,7 @@
         <v>87</v>
       </c>
       <c r="J263">
-        <v>400</v>
+        <v>753</v>
       </c>
       <c r="K263" s="1" t="s">
         <v>57</v>
@@ -17913,7 +17913,7 @@
         <v>24</v>
       </c>
       <c r="J264">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="K264" s="1" t="s">
         <v>1026</v>
@@ -17955,7 +17955,7 @@
         <v>87</v>
       </c>
       <c r="J265">
-        <v>400</v>
+        <v>234</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>57</v>
@@ -17997,7 +17997,7 @@
         <v>87</v>
       </c>
       <c r="J266">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>57</v>
@@ -18041,7 +18041,7 @@
         <v>24</v>
       </c>
       <c r="J267">
-        <v>400</v>
+        <v>782</v>
       </c>
       <c r="K267" s="1" t="s">
         <v>1026</v>
@@ -18085,7 +18085,7 @@
         <v>24</v>
       </c>
       <c r="J268">
-        <v>400</v>
+        <v>997</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>1038</v>
@@ -18129,7 +18129,7 @@
         <v>24</v>
       </c>
       <c r="J269">
-        <v>400</v>
+        <v>582</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>1038</v>
@@ -18173,7 +18173,7 @@
         <v>24</v>
       </c>
       <c r="J270">
-        <v>400</v>
+        <v>796</v>
       </c>
       <c r="K270" s="1" t="s">
         <v>1038</v>
@@ -18217,7 +18217,7 @@
         <v>31</v>
       </c>
       <c r="J271">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="K271" s="1" t="s">
         <v>1038</v>
@@ -18261,7 +18261,7 @@
         <v>56</v>
       </c>
       <c r="J272">
-        <v>400</v>
+        <v>904</v>
       </c>
       <c r="K272" s="1" t="s">
         <v>251</v>
@@ -18305,7 +18305,7 @@
         <v>87</v>
       </c>
       <c r="J273">
-        <v>400</v>
+        <v>744</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>1038</v>
@@ -18349,7 +18349,7 @@
         <v>87</v>
       </c>
       <c r="J274">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>223</v>
@@ -18393,7 +18393,7 @@
         <v>31</v>
       </c>
       <c r="J275">
-        <v>400</v>
+        <v>690</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>1038</v>
@@ -18435,7 +18435,7 @@
         <v>24</v>
       </c>
       <c r="J276">
-        <v>400</v>
+        <v>177</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>16</v>
@@ -18477,7 +18477,7 @@
         <v>434</v>
       </c>
       <c r="J277">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K277" s="1" t="s">
         <v>1038</v>
@@ -18521,7 +18521,7 @@
         <v>50</v>
       </c>
       <c r="J278">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>1069</v>
@@ -18565,7 +18565,7 @@
         <v>434</v>
       </c>
       <c r="J279">
-        <v>400</v>
+        <v>263</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>1073</v>
@@ -18609,7 +18609,7 @@
         <v>87</v>
       </c>
       <c r="J280">
-        <v>400</v>
+        <v>739</v>
       </c>
       <c r="K280" s="1" t="s">
         <v>223</v>
@@ -18653,7 +18653,7 @@
         <v>24</v>
       </c>
       <c r="J281">
-        <v>400</v>
+        <v>177</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>1038</v>
@@ -18697,7 +18697,7 @@
         <v>87</v>
       </c>
       <c r="J282">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>391</v>
@@ -18741,7 +18741,7 @@
         <v>31</v>
       </c>
       <c r="J283">
-        <v>400</v>
+        <v>846</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>1038</v>
@@ -18785,7 +18785,7 @@
         <v>477</v>
       </c>
       <c r="J284">
-        <v>400</v>
+        <v>706</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>1090</v>
@@ -18829,7 +18829,7 @@
         <v>477</v>
       </c>
       <c r="J285">
-        <v>400</v>
+        <v>969</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>1090</v>
@@ -18873,7 +18873,7 @@
         <v>477</v>
       </c>
       <c r="J286">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>1098</v>
@@ -18917,7 +18917,7 @@
         <v>477</v>
       </c>
       <c r="J287">
-        <v>400</v>
+        <v>162</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>1103</v>
@@ -18961,7 +18961,7 @@
         <v>389</v>
       </c>
       <c r="J288">
-        <v>400</v>
+        <v>760</v>
       </c>
       <c r="K288" s="1" t="s">
         <v>398</v>
@@ -19005,7 +19005,7 @@
         <v>389</v>
       </c>
       <c r="J289">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>1111</v>
@@ -19049,7 +19049,7 @@
         <v>389</v>
       </c>
       <c r="J290">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>1116</v>
@@ -19093,7 +19093,7 @@
         <v>17</v>
       </c>
       <c r="J291">
-        <v>400</v>
+        <v>128</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>111</v>
@@ -19137,7 +19137,7 @@
         <v>477</v>
       </c>
       <c r="J292">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>1123</v>
@@ -19181,7 +19181,7 @@
         <v>389</v>
       </c>
       <c r="J293">
-        <v>400</v>
+        <v>881</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>1127</v>
@@ -19225,7 +19225,7 @@
         <v>389</v>
       </c>
       <c r="J294">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>1127</v>
@@ -19269,7 +19269,7 @@
         <v>434</v>
       </c>
       <c r="J295">
-        <v>400</v>
+        <v>690</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>901</v>
@@ -19313,7 +19313,7 @@
         <v>477</v>
       </c>
       <c r="J296">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>1138</v>
@@ -19355,7 +19355,7 @@
         <v>17</v>
       </c>
       <c r="J297">
-        <v>400</v>
+        <v>281</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>1143</v>
@@ -19399,7 +19399,7 @@
         <v>31</v>
       </c>
       <c r="J298">
-        <v>400</v>
+        <v>734</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>745</v>
@@ -19443,7 +19443,7 @@
         <v>389</v>
       </c>
       <c r="J299">
-        <v>400</v>
+        <v>889</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>463</v>
@@ -19487,7 +19487,7 @@
         <v>389</v>
       </c>
       <c r="J300">
-        <v>400</v>
+        <v>657</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>1156</v>
@@ -19531,7 +19531,7 @@
         <v>389</v>
       </c>
       <c r="J301">
-        <v>400</v>
+        <v>951</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>1160</v>
@@ -19575,7 +19575,7 @@
         <v>48</v>
       </c>
       <c r="J302">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="K302" s="1" t="s">
         <v>147</v>
@@ -19619,7 +19619,7 @@
         <v>389</v>
       </c>
       <c r="J303">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K303" s="1" t="s">
         <v>111</v>
@@ -19663,7 +19663,7 @@
         <v>389</v>
       </c>
       <c r="J304">
-        <v>400</v>
+        <v>164</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>111</v>
@@ -19707,7 +19707,7 @@
         <v>146</v>
       </c>
       <c r="J305">
-        <v>400</v>
+        <v>256</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>116</v>
@@ -19751,7 +19751,7 @@
         <v>389</v>
       </c>
       <c r="J306">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K306" s="1" t="s">
         <v>98</v>
@@ -19795,7 +19795,7 @@
         <v>17</v>
       </c>
       <c r="J307">
-        <v>400</v>
+        <v>608</v>
       </c>
       <c r="K307" s="1" t="s">
         <v>1182</v>
@@ -19839,7 +19839,7 @@
         <v>477</v>
       </c>
       <c r="J308">
-        <v>400</v>
+        <v>127</v>
       </c>
       <c r="K308" s="1" t="s">
         <v>1186</v>
@@ -19883,7 +19883,7 @@
         <v>477</v>
       </c>
       <c r="J309">
-        <v>400</v>
+        <v>692</v>
       </c>
       <c r="K309" s="1" t="s">
         <v>1186</v>
@@ -19925,7 +19925,7 @@
         <v>87</v>
       </c>
       <c r="J310">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="K310" s="1" t="s">
         <v>32</v>
@@ -19967,7 +19967,7 @@
         <v>56</v>
       </c>
       <c r="J311">
-        <v>400</v>
+        <v>277</v>
       </c>
       <c r="K311" s="1" t="s">
         <v>32</v>
@@ -20009,7 +20009,7 @@
         <v>31</v>
       </c>
       <c r="J312">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="K312" s="1" t="s">
         <v>1201</v>
@@ -20051,7 +20051,7 @@
         <v>50</v>
       </c>
       <c r="J313">
-        <v>400</v>
+        <v>699</v>
       </c>
       <c r="K313" s="1" t="s">
         <v>32</v>
@@ -20093,7 +20093,7 @@
         <v>24</v>
       </c>
       <c r="J314">
-        <v>400</v>
+        <v>293</v>
       </c>
       <c r="K314" s="1" t="s">
         <v>25</v>
@@ -20135,7 +20135,7 @@
         <v>24</v>
       </c>
       <c r="J315">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="K315" s="1" t="s">
         <v>25</v>
@@ -20177,7 +20177,7 @@
         <v>56</v>
       </c>
       <c r="J316">
-        <v>400</v>
+        <v>145</v>
       </c>
       <c r="K316" s="1" t="s">
         <v>1216</v>
@@ -20221,7 +20221,7 @@
         <v>17</v>
       </c>
       <c r="J317">
-        <v>400</v>
+        <v>669</v>
       </c>
       <c r="K317" s="1" t="s">
         <v>338</v>
@@ -20265,7 +20265,7 @@
         <v>50</v>
       </c>
       <c r="J318">
-        <v>400</v>
+        <v>171</v>
       </c>
       <c r="K318" s="1" t="s">
         <v>1223</v>
@@ -20309,7 +20309,7 @@
         <v>56</v>
       </c>
       <c r="J319">
-        <v>400</v>
+        <v>832</v>
       </c>
       <c r="K319" s="1" t="s">
         <v>98</v>
@@ -20353,7 +20353,7 @@
         <v>24</v>
       </c>
       <c r="J320">
-        <v>400</v>
+        <v>794</v>
       </c>
       <c r="K320" s="1" t="s">
         <v>1230</v>
@@ -20397,7 +20397,7 @@
         <v>31</v>
       </c>
       <c r="J321">
-        <v>400</v>
+        <v>491</v>
       </c>
       <c r="K321" s="1" t="s">
         <v>103</v>
@@ -20441,7 +20441,7 @@
         <v>56</v>
       </c>
       <c r="J322">
-        <v>400</v>
+        <v>157</v>
       </c>
       <c r="K322" s="1" t="s">
         <v>478</v>
@@ -20485,7 +20485,7 @@
         <v>56</v>
       </c>
       <c r="J323">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="K323" s="1" t="s">
         <v>1242</v>
@@ -20529,7 +20529,7 @@
         <v>56</v>
       </c>
       <c r="J324">
-        <v>400</v>
+        <v>266</v>
       </c>
       <c r="K324" s="1" t="s">
         <v>107</v>
@@ -20573,7 +20573,7 @@
         <v>56</v>
       </c>
       <c r="J325">
-        <v>400</v>
+        <v>688</v>
       </c>
       <c r="K325" s="1" t="s">
         <v>107</v>
@@ -20617,7 +20617,7 @@
         <v>56</v>
       </c>
       <c r="J326">
-        <v>400</v>
+        <v>649</v>
       </c>
       <c r="K326" s="1" t="s">
         <v>98</v>
@@ -20661,7 +20661,7 @@
         <v>24</v>
       </c>
       <c r="J327">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K327" s="1" t="s">
         <v>1258</v>
@@ -20705,7 +20705,7 @@
         <v>56</v>
       </c>
       <c r="J328">
-        <v>400</v>
+        <v>836</v>
       </c>
       <c r="K328" s="1" t="s">
         <v>116</v>
@@ -20749,7 +20749,7 @@
         <v>477</v>
       </c>
       <c r="J329">
-        <v>400</v>
+        <v>591</v>
       </c>
       <c r="K329" s="1" t="s">
         <v>147</v>
@@ -20793,7 +20793,7 @@
         <v>87</v>
       </c>
       <c r="J330">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="K330" s="1" t="s">
         <v>98</v>
@@ -20837,7 +20837,7 @@
         <v>87</v>
       </c>
       <c r="J331">
-        <v>400</v>
+        <v>495</v>
       </c>
       <c r="K331" s="1" t="s">
         <v>98</v>
@@ -20881,7 +20881,7 @@
         <v>56</v>
       </c>
       <c r="J332">
-        <v>400</v>
+        <v>327</v>
       </c>
       <c r="K332" s="1" t="s">
         <v>645</v>
@@ -20925,7 +20925,7 @@
         <v>56</v>
       </c>
       <c r="J333">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="K333" s="1" t="s">
         <v>116</v>
@@ -20969,7 +20969,7 @@
         <v>24</v>
       </c>
       <c r="J334">
-        <v>400</v>
+        <v>691</v>
       </c>
       <c r="K334" s="1" t="s">
         <v>103</v>
@@ -21013,7 +21013,7 @@
         <v>434</v>
       </c>
       <c r="J335">
-        <v>400</v>
+        <v>766</v>
       </c>
       <c r="K335" s="1" t="s">
         <v>98</v>
@@ -21057,7 +21057,7 @@
         <v>48</v>
       </c>
       <c r="J336">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="K336" s="1" t="s">
         <v>463</v>
@@ -21101,7 +21101,7 @@
         <v>24</v>
       </c>
       <c r="J337">
-        <v>400</v>
+        <v>883</v>
       </c>
       <c r="K337" s="1" t="s">
         <v>1298</v>
@@ -21145,7 +21145,7 @@
         <v>24</v>
       </c>
       <c r="J338">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="K338" s="1" t="s">
         <v>147</v>
@@ -21189,7 +21189,7 @@
         <v>477</v>
       </c>
       <c r="J339">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K339" s="1" t="s">
         <v>116</v>
@@ -21233,7 +21233,7 @@
         <v>434</v>
       </c>
       <c r="J340">
-        <v>400</v>
+        <v>158</v>
       </c>
       <c r="K340" s="1" t="s">
         <v>116</v>
@@ -21277,7 +21277,7 @@
         <v>434</v>
       </c>
       <c r="J341">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="K341" s="1" t="s">
         <v>116</v>
@@ -21321,7 +21321,7 @@
         <v>146</v>
       </c>
       <c r="J342">
-        <v>400</v>
+        <v>792</v>
       </c>
       <c r="K342" s="1" t="s">
         <v>116</v>
@@ -21365,7 +21365,7 @@
         <v>50</v>
       </c>
       <c r="J343">
-        <v>400</v>
+        <v>169</v>
       </c>
       <c r="K343" s="1" t="s">
         <v>116</v>
@@ -21409,7 +21409,7 @@
         <v>434</v>
       </c>
       <c r="J344">
-        <v>400</v>
+        <v>772</v>
       </c>
       <c r="K344" s="1" t="s">
         <v>116</v>
@@ -21453,7 +21453,7 @@
         <v>477</v>
       </c>
       <c r="J345">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="K345" s="1" t="s">
         <v>116</v>
@@ -21497,7 +21497,7 @@
         <v>87</v>
       </c>
       <c r="J346">
-        <v>400</v>
+        <v>664</v>
       </c>
       <c r="K346" s="1" t="s">
         <v>103</v>
@@ -21541,7 +21541,7 @@
         <v>434</v>
       </c>
       <c r="J347">
-        <v>400</v>
+        <v>695</v>
       </c>
       <c r="K347" s="1" t="s">
         <v>147</v>
@@ -21585,7 +21585,7 @@
         <v>1001</v>
       </c>
       <c r="J348">
-        <v>400</v>
+        <v>246</v>
       </c>
       <c r="K348" s="1" t="s">
         <v>147</v>
@@ -21629,7 +21629,7 @@
         <v>389</v>
       </c>
       <c r="J349">
-        <v>400</v>
+        <v>864</v>
       </c>
       <c r="K349" s="1" t="s">
         <v>98</v>
@@ -21673,7 +21673,7 @@
         <v>477</v>
       </c>
       <c r="J350">
-        <v>400</v>
+        <v>589</v>
       </c>
       <c r="K350" s="1" t="s">
         <v>116</v>
@@ -21717,7 +21717,7 @@
         <v>1001</v>
       </c>
       <c r="J351">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>98</v>
@@ -21761,7 +21761,7 @@
         <v>24</v>
       </c>
       <c r="J352">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="K352" s="1" t="s">
         <v>98</v>
@@ -21805,7 +21805,7 @@
         <v>24</v>
       </c>
       <c r="J353">
-        <v>400</v>
+        <v>865</v>
       </c>
       <c r="K353" s="1" t="s">
         <v>1363</v>
@@ -21849,7 +21849,7 @@
         <v>24</v>
       </c>
       <c r="J354">
-        <v>400</v>
+        <v>836</v>
       </c>
       <c r="K354" s="1" t="s">
         <v>16</v>
@@ -21893,7 +21893,7 @@
         <v>24</v>
       </c>
       <c r="J355">
-        <v>400</v>
+        <v>539</v>
       </c>
       <c r="K355" s="1" t="s">
         <v>103</v>
@@ -21937,7 +21937,7 @@
         <v>183</v>
       </c>
       <c r="J356">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="K356" s="1" t="s">
         <v>116</v>
@@ -21981,7 +21981,7 @@
         <v>1001</v>
       </c>
       <c r="J357">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="K357" s="1" t="s">
         <v>1380</v>
@@ -22025,7 +22025,7 @@
         <v>1385</v>
       </c>
       <c r="J358">
-        <v>400</v>
+        <v>477</v>
       </c>
       <c r="K358" s="1" t="s">
         <v>463</v>
@@ -22069,7 +22069,7 @@
         <v>1385</v>
       </c>
       <c r="J359">
-        <v>400</v>
+        <v>669</v>
       </c>
       <c r="K359" s="1" t="s">
         <v>463</v>
@@ -22113,7 +22113,7 @@
         <v>389</v>
       </c>
       <c r="J360">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="K360" s="1" t="s">
         <v>98</v>
@@ -22157,7 +22157,7 @@
         <v>389</v>
       </c>
       <c r="J361">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K361" s="1" t="s">
         <v>1399</v>
@@ -22201,7 +22201,7 @@
         <v>389</v>
       </c>
       <c r="J362">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K362" s="1" t="s">
         <v>1399</v>
@@ -22245,7 +22245,7 @@
         <v>389</v>
       </c>
       <c r="J363">
-        <v>400</v>
+        <v>543</v>
       </c>
       <c r="K363" s="1" t="s">
         <v>1399</v>
@@ -22289,7 +22289,7 @@
         <v>389</v>
       </c>
       <c r="J364">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="K364" s="1" t="s">
         <v>831</v>
@@ -22333,7 +22333,7 @@
         <v>389</v>
       </c>
       <c r="J365">
-        <v>400</v>
+        <v>910</v>
       </c>
       <c r="K365" s="1" t="s">
         <v>831</v>
@@ -22377,7 +22377,7 @@
         <v>389</v>
       </c>
       <c r="J366">
-        <v>400</v>
+        <v>827</v>
       </c>
       <c r="K366" s="1" t="s">
         <v>831</v>
@@ -22421,7 +22421,7 @@
         <v>389</v>
       </c>
       <c r="J367">
-        <v>400</v>
+        <v>145</v>
       </c>
       <c r="K367" s="1" t="s">
         <v>831</v>
@@ -22465,7 +22465,7 @@
         <v>389</v>
       </c>
       <c r="J368">
-        <v>400</v>
+        <v>877</v>
       </c>
       <c r="K368" s="1" t="s">
         <v>1399</v>
@@ -22509,7 +22509,7 @@
         <v>389</v>
       </c>
       <c r="J369">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="K369" s="1" t="s">
         <v>1399</v>
@@ -22553,7 +22553,7 @@
         <v>389</v>
       </c>
       <c r="J370">
-        <v>400</v>
+        <v>957</v>
       </c>
       <c r="K370" s="1" t="s">
         <v>831</v>
@@ -22597,7 +22597,7 @@
         <v>389</v>
       </c>
       <c r="J371">
-        <v>400</v>
+        <v>787</v>
       </c>
       <c r="K371" s="1" t="s">
         <v>831</v>
@@ -22641,7 +22641,7 @@
         <v>389</v>
       </c>
       <c r="J372">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="K372" s="1" t="s">
         <v>831</v>
@@ -22685,7 +22685,7 @@
         <v>389</v>
       </c>
       <c r="J373">
-        <v>400</v>
+        <v>615</v>
       </c>
       <c r="K373" s="1" t="s">
         <v>1399</v>
@@ -22729,7 +22729,7 @@
         <v>389</v>
       </c>
       <c r="J374">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="K374" s="1" t="s">
         <v>1399</v>
@@ -22773,7 +22773,7 @@
         <v>389</v>
       </c>
       <c r="J375">
-        <v>400</v>
+        <v>942</v>
       </c>
       <c r="K375" s="1" t="s">
         <v>831</v>
@@ -22817,7 +22817,7 @@
         <v>389</v>
       </c>
       <c r="J376">
-        <v>400</v>
+        <v>548</v>
       </c>
       <c r="K376" s="1" t="s">
         <v>1399</v>
@@ -22861,7 +22861,7 @@
         <v>389</v>
       </c>
       <c r="J377">
-        <v>400</v>
+        <v>608</v>
       </c>
       <c r="K377" s="1" t="s">
         <v>1399</v>
@@ -22905,7 +22905,7 @@
         <v>389</v>
       </c>
       <c r="J378">
-        <v>400</v>
+        <v>674</v>
       </c>
       <c r="K378" s="1" t="s">
         <v>1399</v>
@@ -22949,7 +22949,7 @@
         <v>389</v>
       </c>
       <c r="J379">
-        <v>400</v>
+        <v>269</v>
       </c>
       <c r="K379" s="1" t="s">
         <v>1399</v>
@@ -22993,7 +22993,7 @@
         <v>389</v>
       </c>
       <c r="J380">
-        <v>400</v>
+        <v>992</v>
       </c>
       <c r="K380" s="1" t="s">
         <v>831</v>
@@ -23037,7 +23037,7 @@
         <v>389</v>
       </c>
       <c r="J381">
-        <v>400</v>
+        <v>979</v>
       </c>
       <c r="K381" s="1" t="s">
         <v>831</v>

--- a/src/main/resources/data/products.xlsx
+++ b/src/main/resources/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\NLU\InformationTechnology\WebTopic\Project\Backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF3F696-6603-4B8E-A7D5-EB3D2BC4F625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0FD960-80FA-4520-A1E0-7C3A57C720AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6490,8 +6490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E348" workbookViewId="0">
-      <selection activeCell="P359" sqref="P359"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
